--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.635217</v>
+        <v>15.50081833333333</v>
       </c>
       <c r="H2">
-        <v>37.905651</v>
+        <v>46.502455</v>
       </c>
       <c r="I2">
-        <v>0.6124739533382845</v>
+        <v>0.6975713722222094</v>
       </c>
       <c r="J2">
-        <v>0.6124739533382845</v>
+        <v>0.6975713722222093</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.48871133333333</v>
+        <v>29.01761566666667</v>
       </c>
       <c r="N2">
-        <v>106.466134</v>
+        <v>87.052847</v>
       </c>
       <c r="O2">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="P2">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="Q2">
-        <v>448.407568747026</v>
+        <v>449.7967889154872</v>
       </c>
       <c r="R2">
-        <v>4035.668118723234</v>
+        <v>4048.171100239385</v>
       </c>
       <c r="S2">
-        <v>0.4698229223900676</v>
+        <v>0.4489622334220167</v>
       </c>
       <c r="T2">
-        <v>0.4698229223900676</v>
+        <v>0.4489622334220167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.635217</v>
+        <v>15.50081833333333</v>
       </c>
       <c r="H3">
-        <v>37.905651</v>
+        <v>46.502455</v>
       </c>
       <c r="I3">
-        <v>0.6124739533382845</v>
+        <v>0.6975713722222094</v>
       </c>
       <c r="J3">
-        <v>0.6124739533382845</v>
+        <v>0.6975713722222093</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.839784</v>
       </c>
       <c r="O3">
-        <v>0.05648578787427251</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="P3">
-        <v>0.05648578787427252</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="Q3">
-        <v>33.019124024376</v>
+        <v>40.50768918552445</v>
       </c>
       <c r="R3">
-        <v>297.172116219384</v>
+        <v>364.56920266972</v>
       </c>
       <c r="S3">
-        <v>0.03459607380678342</v>
+        <v>0.04043253099104493</v>
       </c>
       <c r="T3">
-        <v>0.03459607380678342</v>
+        <v>0.04043253099104492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.635217</v>
+        <v>15.50081833333333</v>
       </c>
       <c r="H4">
-        <v>37.905651</v>
+        <v>46.502455</v>
       </c>
       <c r="I4">
-        <v>0.6124739533382845</v>
+        <v>0.6975713722222094</v>
       </c>
       <c r="J4">
-        <v>0.6124739533382845</v>
+        <v>0.6975713722222093</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.596082</v>
+        <v>1.123006</v>
       </c>
       <c r="N4">
-        <v>1.788246</v>
+        <v>3.369018</v>
       </c>
       <c r="O4">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="P4">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="Q4">
-        <v>7.531625419794</v>
+        <v>17.40751199324333</v>
       </c>
       <c r="R4">
-        <v>67.784628778146</v>
+        <v>156.66760793919</v>
       </c>
       <c r="S4">
-        <v>0.007891325909066526</v>
+        <v>0.017375213997527</v>
       </c>
       <c r="T4">
-        <v>0.00789132590906653</v>
+        <v>0.01737521399752699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.635217</v>
+        <v>15.50081833333333</v>
       </c>
       <c r="H5">
-        <v>37.905651</v>
+        <v>46.502455</v>
       </c>
       <c r="I5">
-        <v>0.6124739533382845</v>
+        <v>0.6975713722222094</v>
       </c>
       <c r="J5">
-        <v>0.6124739533382845</v>
+        <v>0.6975713722222093</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.083219666666667</v>
+        <v>10.33196133333333</v>
       </c>
       <c r="N5">
-        <v>21.249659</v>
+        <v>30.995884</v>
       </c>
       <c r="O5">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="P5">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="Q5">
-        <v>89.498017547001</v>
+        <v>160.1538556550244</v>
       </c>
       <c r="R5">
-        <v>805.482157923009</v>
+        <v>1441.38470089522</v>
       </c>
       <c r="S5">
-        <v>0.09377232473917388</v>
+        <v>0.1598567052899459</v>
       </c>
       <c r="T5">
-        <v>0.09377232473917389</v>
+        <v>0.1598567052899459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.635217</v>
+        <v>15.50081833333333</v>
       </c>
       <c r="H6">
-        <v>37.905651</v>
+        <v>46.502455</v>
       </c>
       <c r="I6">
-        <v>0.6124739533382845</v>
+        <v>0.6975713722222094</v>
       </c>
       <c r="J6">
-        <v>0.6124739533382845</v>
+        <v>0.6975713722222093</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.482776</v>
+        <v>2.000037</v>
       </c>
       <c r="N6">
-        <v>1.448328</v>
+        <v>6.000111</v>
       </c>
       <c r="O6">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="P6">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="Q6">
-        <v>6.099979522392</v>
+        <v>31.002210196945</v>
       </c>
       <c r="R6">
-        <v>54.899815701528</v>
+        <v>279.019891772505</v>
       </c>
       <c r="S6">
-        <v>0.006391306493193054</v>
+        <v>0.03094468852167478</v>
       </c>
       <c r="T6">
-        <v>0.006391306493193054</v>
+        <v>0.03094468852167478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>8.892398</v>
       </c>
       <c r="I7">
-        <v>0.143682063598313</v>
+        <v>0.1333925762673397</v>
       </c>
       <c r="J7">
-        <v>0.1436820635983129</v>
+        <v>0.1333925762673396</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.48871133333333</v>
+        <v>29.01761566666667</v>
       </c>
       <c r="N7">
-        <v>106.466134</v>
+        <v>87.052847</v>
       </c>
       <c r="O7">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="P7">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="Q7">
-        <v>105.1932485610369</v>
+        <v>86.01206250634512</v>
       </c>
       <c r="R7">
-        <v>946.739237049332</v>
+        <v>774.108562557106</v>
       </c>
       <c r="S7">
-        <v>0.1102171392707539</v>
+        <v>0.08585247524152166</v>
       </c>
       <c r="T7">
-        <v>0.1102171392707539</v>
+        <v>0.08585247524152163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>8.892398</v>
       </c>
       <c r="I8">
-        <v>0.143682063598313</v>
+        <v>0.1333925762673397</v>
       </c>
       <c r="J8">
-        <v>0.1436820635983129</v>
+        <v>0.1333925762673396</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.839784</v>
       </c>
       <c r="O8">
-        <v>0.05648578787427251</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="P8">
-        <v>0.05648578787427252</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="Q8">
         <v>7.746053284670222</v>
@@ -948,10 +948,10 @@
         <v>69.714479562032</v>
       </c>
       <c r="S8">
-        <v>0.008115994565752037</v>
+        <v>0.007731681213813463</v>
       </c>
       <c r="T8">
-        <v>0.008115994565752037</v>
+        <v>0.007731681213813462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>8.892398</v>
       </c>
       <c r="I9">
-        <v>0.143682063598313</v>
+        <v>0.1333925762673397</v>
       </c>
       <c r="J9">
-        <v>0.1436820635983129</v>
+        <v>0.1333925762673396</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.596082</v>
+        <v>1.123006</v>
       </c>
       <c r="N9">
-        <v>1.788246</v>
+        <v>3.369018</v>
       </c>
       <c r="O9">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="P9">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="Q9">
-        <v>1.766866128212</v>
+        <v>3.328738769462666</v>
       </c>
       <c r="R9">
-        <v>15.901795153908</v>
+        <v>29.958648925164</v>
       </c>
       <c r="S9">
-        <v>0.001851249322459371</v>
+        <v>0.003322562608816697</v>
       </c>
       <c r="T9">
-        <v>0.001851249322459371</v>
+        <v>0.003322562608816697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>8.892398</v>
       </c>
       <c r="I10">
-        <v>0.143682063598313</v>
+        <v>0.1333925762673397</v>
       </c>
       <c r="J10">
-        <v>0.1436820635983129</v>
+        <v>0.1333925762673396</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.083219666666667</v>
+        <v>10.33196133333333</v>
       </c>
       <c r="N10">
-        <v>21.249659</v>
+        <v>30.995884</v>
       </c>
       <c r="O10">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="P10">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="Q10">
-        <v>20.99560279914245</v>
+        <v>30.62530409887022</v>
       </c>
       <c r="R10">
-        <v>188.960425192282</v>
+        <v>275.627736889832</v>
       </c>
       <c r="S10">
-        <v>0.02199832507733426</v>
+        <v>0.03056848173729548</v>
       </c>
       <c r="T10">
-        <v>0.02199832507733426</v>
+        <v>0.03056848173729547</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>8.892398</v>
       </c>
       <c r="I11">
-        <v>0.143682063598313</v>
+        <v>0.1333925762673397</v>
       </c>
       <c r="J11">
-        <v>0.1436820635983129</v>
+        <v>0.1333925762673396</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.482776</v>
+        <v>2.000037</v>
       </c>
       <c r="N11">
-        <v>1.448328</v>
+        <v>6.000111</v>
       </c>
       <c r="O11">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="P11">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="Q11">
-        <v>1.431012112282667</v>
+        <v>5.928375006242001</v>
       </c>
       <c r="R11">
-        <v>12.879109010544</v>
+        <v>53.355375056178</v>
       </c>
       <c r="S11">
-        <v>0.001499355362013356</v>
+        <v>0.005917375465892366</v>
       </c>
       <c r="T11">
-        <v>0.001499355362013356</v>
+        <v>0.005917375465892365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.088661</v>
+        <v>1.908787666666667</v>
       </c>
       <c r="H12">
-        <v>6.265983</v>
+        <v>5.726363</v>
       </c>
       <c r="I12">
-        <v>0.1012448349603726</v>
+        <v>0.08589969918260204</v>
       </c>
       <c r="J12">
-        <v>0.1012448349603726</v>
+        <v>0.08589969918260203</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.48871133333333</v>
+        <v>29.01761566666667</v>
       </c>
       <c r="N12">
-        <v>106.466134</v>
+        <v>87.052847</v>
       </c>
       <c r="O12">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="P12">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="Q12">
-        <v>74.12388730219133</v>
+        <v>55.38846690060678</v>
       </c>
       <c r="R12">
-        <v>667.114985719722</v>
+        <v>498.496202105461</v>
       </c>
       <c r="S12">
-        <v>0.07766394632574661</v>
+        <v>0.0552856988274103</v>
       </c>
       <c r="T12">
-        <v>0.07766394632574661</v>
+        <v>0.05528569882741029</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.088661</v>
+        <v>1.908787666666667</v>
       </c>
       <c r="H13">
-        <v>6.265983</v>
+        <v>5.726363</v>
       </c>
       <c r="I13">
-        <v>0.1012448349603726</v>
+        <v>0.08589969918260204</v>
       </c>
       <c r="J13">
-        <v>0.1012448349603726</v>
+        <v>0.08589969918260203</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.839784</v>
       </c>
       <c r="O13">
-        <v>0.05648578787427251</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="P13">
-        <v>0.05648578787427252</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="Q13">
-        <v>5.458217029741334</v>
+        <v>4.988161002843556</v>
       </c>
       <c r="R13">
-        <v>49.123953267672</v>
+        <v>44.893449025592</v>
       </c>
       <c r="S13">
-        <v>0.005718894270937339</v>
+        <v>0.00497890594084706</v>
       </c>
       <c r="T13">
-        <v>0.005718894270937339</v>
+        <v>0.004978905940847059</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.088661</v>
+        <v>1.908787666666667</v>
       </c>
       <c r="H14">
-        <v>6.265983</v>
+        <v>5.726363</v>
       </c>
       <c r="I14">
-        <v>0.1012448349603726</v>
+        <v>0.08589969918260204</v>
       </c>
       <c r="J14">
-        <v>0.1012448349603726</v>
+        <v>0.08589969918260203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.596082</v>
+        <v>1.123006</v>
       </c>
       <c r="N14">
-        <v>1.788246</v>
+        <v>3.369018</v>
       </c>
       <c r="O14">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="P14">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="Q14">
-        <v>1.245013226202</v>
+        <v>2.143580002392667</v>
       </c>
       <c r="R14">
-        <v>11.205119035818</v>
+        <v>19.292220021534</v>
       </c>
       <c r="S14">
-        <v>0.001304473414628083</v>
+        <v>0.002139602791992825</v>
       </c>
       <c r="T14">
-        <v>0.001304473414628083</v>
+        <v>0.002139602791992824</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.088661</v>
+        <v>1.908787666666667</v>
       </c>
       <c r="H15">
-        <v>6.265983</v>
+        <v>5.726363</v>
       </c>
       <c r="I15">
-        <v>0.1012448349603726</v>
+        <v>0.08589969918260204</v>
       </c>
       <c r="J15">
-        <v>0.1012448349603726</v>
+        <v>0.08589969918260203</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.083219666666667</v>
+        <v>10.33196133333333</v>
       </c>
       <c r="N15">
-        <v>21.249659</v>
+        <v>30.995884</v>
       </c>
       <c r="O15">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="P15">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="Q15">
-        <v>14.79444467219967</v>
+        <v>19.72152036554355</v>
       </c>
       <c r="R15">
-        <v>133.150002049797</v>
+        <v>177.493683289892</v>
       </c>
       <c r="S15">
-        <v>0.01550100782297983</v>
+        <v>0.01968492894567073</v>
       </c>
       <c r="T15">
-        <v>0.01550100782297983</v>
+        <v>0.01968492894567073</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.088661</v>
+        <v>1.908787666666667</v>
       </c>
       <c r="H16">
-        <v>6.265983</v>
+        <v>5.726363</v>
       </c>
       <c r="I16">
-        <v>0.1012448349603726</v>
+        <v>0.08589969918260204</v>
       </c>
       <c r="J16">
-        <v>0.1012448349603726</v>
+        <v>0.08589969918260203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.482776</v>
+        <v>2.000037</v>
       </c>
       <c r="N16">
-        <v>1.448328</v>
+        <v>6.000111</v>
       </c>
       <c r="O16">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="P16">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="Q16">
-        <v>1.008355402936</v>
+        <v>3.817645958477001</v>
       </c>
       <c r="R16">
-        <v>9.075198626424001</v>
+        <v>34.35881362629301</v>
       </c>
       <c r="S16">
-        <v>0.001056513126080787</v>
+        <v>0.003810562676681117</v>
       </c>
       <c r="T16">
-        <v>0.001056513126080787</v>
+        <v>0.003810562676681116</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5107313333333333</v>
+        <v>0.5887749999999999</v>
       </c>
       <c r="H17">
-        <v>1.532194</v>
+        <v>1.766325</v>
       </c>
       <c r="I17">
-        <v>0.02475696609091873</v>
+        <v>0.02649618722367226</v>
       </c>
       <c r="J17">
-        <v>0.02475696609091873</v>
+        <v>0.02649618722367225</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.48871133333333</v>
+        <v>29.01761566666667</v>
       </c>
       <c r="N17">
-        <v>106.466134</v>
+        <v>87.052847</v>
       </c>
       <c r="O17">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="P17">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="Q17">
-        <v>18.12519685755511</v>
+        <v>17.08484666414166</v>
       </c>
       <c r="R17">
-        <v>163.126771717996</v>
+        <v>153.763619977275</v>
       </c>
       <c r="S17">
-        <v>0.01899083233654336</v>
+        <v>0.0170531473434928</v>
       </c>
       <c r="T17">
-        <v>0.01899083233654336</v>
+        <v>0.0170531473434928</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5107313333333333</v>
+        <v>0.5887749999999999</v>
       </c>
       <c r="H18">
-        <v>1.532194</v>
+        <v>1.766325</v>
       </c>
       <c r="I18">
-        <v>0.02475696609091873</v>
+        <v>0.02649618722367226</v>
       </c>
       <c r="J18">
-        <v>0.02475696609091873</v>
+        <v>0.02649618722367225</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.839784</v>
       </c>
       <c r="O18">
-        <v>0.05648578787427251</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="P18">
-        <v>0.05648578787427252</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="Q18">
-        <v>1.334674445121778</v>
+        <v>1.538622941533333</v>
       </c>
       <c r="R18">
-        <v>12.012070006096</v>
+        <v>13.8476064738</v>
       </c>
       <c r="S18">
-        <v>0.001398416735022193</v>
+        <v>0.00153576817186872</v>
       </c>
       <c r="T18">
-        <v>0.001398416735022193</v>
+        <v>0.00153576817186872</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5107313333333333</v>
+        <v>0.5887749999999999</v>
       </c>
       <c r="H19">
-        <v>1.532194</v>
+        <v>1.766325</v>
       </c>
       <c r="I19">
-        <v>0.02475696609091873</v>
+        <v>0.02649618722367226</v>
       </c>
       <c r="J19">
-        <v>0.02475696609091873</v>
+        <v>0.02649618722367225</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.596082</v>
+        <v>1.123006</v>
       </c>
       <c r="N19">
-        <v>1.788246</v>
+        <v>3.369018</v>
       </c>
       <c r="O19">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="P19">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="Q19">
-        <v>0.304437754636</v>
+        <v>0.6611978576499999</v>
       </c>
       <c r="R19">
-        <v>2.739939791724</v>
+        <v>5.950780718849999</v>
       </c>
       <c r="S19">
-        <v>0.0003189772999787362</v>
+        <v>0.0006599710674239</v>
       </c>
       <c r="T19">
-        <v>0.0003189772999787362</v>
+        <v>0.0006599710674238998</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5107313333333333</v>
+        <v>0.5887749999999999</v>
       </c>
       <c r="H20">
-        <v>1.532194</v>
+        <v>1.766325</v>
       </c>
       <c r="I20">
-        <v>0.02475696609091873</v>
+        <v>0.02649618722367226</v>
       </c>
       <c r="J20">
-        <v>0.02475696609091873</v>
+        <v>0.02649618722367225</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.083219666666667</v>
+        <v>10.33196133333333</v>
       </c>
       <c r="N20">
-        <v>21.249659</v>
+        <v>30.995884</v>
       </c>
       <c r="O20">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="P20">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="Q20">
-        <v>3.617622224649556</v>
+        <v>6.083200534033332</v>
       </c>
       <c r="R20">
-        <v>32.558600021846</v>
+        <v>54.74880480629999</v>
       </c>
       <c r="S20">
-        <v>0.003790395087302782</v>
+        <v>0.006071913729528124</v>
       </c>
       <c r="T20">
-        <v>0.003790395087302783</v>
+        <v>0.006071913729528123</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5107313333333333</v>
+        <v>0.5887749999999999</v>
       </c>
       <c r="H21">
-        <v>1.532194</v>
+        <v>1.766325</v>
       </c>
       <c r="I21">
-        <v>0.02475696609091873</v>
+        <v>0.02649618722367226</v>
       </c>
       <c r="J21">
-        <v>0.02475696609091873</v>
+        <v>0.02649618722367225</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.482776</v>
+        <v>2.000037</v>
       </c>
       <c r="N21">
-        <v>1.448328</v>
+        <v>6.000111</v>
       </c>
       <c r="O21">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="P21">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="Q21">
-        <v>0.2465688301813334</v>
+        <v>1.177571784675</v>
       </c>
       <c r="R21">
-        <v>2.219119471632</v>
+        <v>10.598146062075</v>
       </c>
       <c r="S21">
-        <v>0.0002583446320716518</v>
+        <v>0.001175386911358706</v>
       </c>
       <c r="T21">
-        <v>0.0002583446320716518</v>
+        <v>0.001175386911358706</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.431061</v>
+        <v>1.258608</v>
       </c>
       <c r="H22">
-        <v>7.293182999999999</v>
+        <v>3.775824</v>
       </c>
       <c r="I22">
-        <v>0.1178421820121113</v>
+        <v>0.0566401651041768</v>
       </c>
       <c r="J22">
-        <v>0.1178421820121113</v>
+        <v>0.05664016510417678</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>35.48871133333333</v>
+        <v>29.01761566666667</v>
       </c>
       <c r="N22">
-        <v>106.466134</v>
+        <v>87.052847</v>
       </c>
       <c r="O22">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="P22">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="Q22">
-        <v>86.27522206272467</v>
+        <v>36.521803218992</v>
       </c>
       <c r="R22">
-        <v>776.4769985645219</v>
+        <v>328.696228970928</v>
       </c>
       <c r="S22">
-        <v>0.09039561279624403</v>
+        <v>0.03645404045976611</v>
       </c>
       <c r="T22">
-        <v>0.09039561279624403</v>
+        <v>0.03645404045976611</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.431061</v>
+        <v>1.258608</v>
       </c>
       <c r="H23">
-        <v>7.293182999999999</v>
+        <v>3.775824</v>
       </c>
       <c r="I23">
-        <v>0.1178421820121113</v>
+        <v>0.0566401651041768</v>
       </c>
       <c r="J23">
-        <v>0.1178421820121113</v>
+        <v>0.05664016510417678</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.839784</v>
       </c>
       <c r="O23">
-        <v>0.05648578787427251</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="P23">
-        <v>0.05648578787427252</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="Q23">
-        <v>6.352997710274666</v>
+        <v>3.289071620224</v>
       </c>
       <c r="R23">
-        <v>57.17697939247199</v>
+        <v>29.601644582016</v>
       </c>
       <c r="S23">
-        <v>0.006656408495777533</v>
+        <v>0.003282969058229963</v>
       </c>
       <c r="T23">
-        <v>0.006656408495777533</v>
+        <v>0.003282969058229962</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.431061</v>
+        <v>1.258608</v>
       </c>
       <c r="H24">
-        <v>7.293182999999999</v>
+        <v>3.775824</v>
       </c>
       <c r="I24">
-        <v>0.1178421820121113</v>
+        <v>0.0566401651041768</v>
       </c>
       <c r="J24">
-        <v>0.1178421820121113</v>
+        <v>0.05664016510417678</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.596082</v>
+        <v>1.123006</v>
       </c>
       <c r="N24">
-        <v>1.788246</v>
+        <v>3.369018</v>
       </c>
       <c r="O24">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="P24">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="Q24">
-        <v>1.449111703002</v>
+        <v>1.413424335648</v>
       </c>
       <c r="R24">
-        <v>13.042005327018</v>
+        <v>12.720819020832</v>
       </c>
       <c r="S24">
-        <v>0.001518319365296313</v>
+        <v>0.001410801860181326</v>
       </c>
       <c r="T24">
-        <v>0.001518319365296313</v>
+        <v>0.001410801860181325</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.431061</v>
+        <v>1.258608</v>
       </c>
       <c r="H25">
-        <v>7.293182999999999</v>
+        <v>3.775824</v>
       </c>
       <c r="I25">
-        <v>0.1178421820121113</v>
+        <v>0.0566401651041768</v>
       </c>
       <c r="J25">
-        <v>0.1178421820121113</v>
+        <v>0.05664016510417678</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.083219666666667</v>
+        <v>10.33196133333333</v>
       </c>
       <c r="N25">
-        <v>21.249659</v>
+        <v>30.995884</v>
       </c>
       <c r="O25">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="P25">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="Q25">
-        <v>17.21973908606633</v>
+        <v>13.003889189824</v>
       </c>
       <c r="R25">
-        <v>154.977651774597</v>
+        <v>117.035002708416</v>
       </c>
       <c r="S25">
-        <v>0.01804213109697608</v>
+        <v>0.01297976170063935</v>
       </c>
       <c r="T25">
-        <v>0.01804213109697608</v>
+        <v>0.01297976170063935</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.431061</v>
+        <v>1.258608</v>
       </c>
       <c r="H26">
-        <v>7.293182999999999</v>
+        <v>3.775824</v>
       </c>
       <c r="I26">
-        <v>0.1178421820121113</v>
+        <v>0.0566401651041768</v>
       </c>
       <c r="J26">
-        <v>0.1178421820121113</v>
+        <v>0.05664016510417678</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.482776</v>
+        <v>2.000037</v>
       </c>
       <c r="N26">
-        <v>1.448328</v>
+        <v>6.000111</v>
       </c>
       <c r="O26">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="P26">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="Q26">
-        <v>1.173657905336</v>
+        <v>2.517262568496</v>
       </c>
       <c r="R26">
-        <v>10.562921148024</v>
+        <v>22.655363116464</v>
       </c>
       <c r="S26">
-        <v>0.001229710257817369</v>
+        <v>0.002512592025360041</v>
       </c>
       <c r="T26">
-        <v>0.001229710257817369</v>
+        <v>0.002512592025360041</v>
       </c>
     </row>
   </sheetData>
